--- a/Result_Ngrams/TopWords_Bigrams_CalculationI_homebrew_STDV_Top15_highest_STDV.xlsx
+++ b/Result_Ngrams/TopWords_Bigrams_CalculationI_homebrew_STDV_Top15_highest_STDV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Stage1: STDV</t>
   </si>
@@ -55,27 +55,27 @@
     <t>('visit', 'websit')</t>
   </si>
   <si>
+    <t>('pleas', 'visit')</t>
+  </si>
+  <si>
     <t>('obtain', 'pretrial')</t>
   </si>
   <si>
     <t>('websit', 'http')</t>
   </si>
   <si>
-    <t>('pleas', 'visit')</t>
-  </si>
-  <si>
     <t>('http', 'obtain')</t>
   </si>
   <si>
     <t>('proceed', 'magistr')</t>
   </si>
   <si>
+    <t>('civil', 'cover')</t>
+  </si>
+  <si>
     <t>('cover', 'sheet')</t>
   </si>
   <si>
-    <t>('civil', 'cover')</t>
-  </si>
-  <si>
     <t>('juri', 'demand')</t>
   </si>
   <si>
@@ -103,282 +103,96 @@
     <t>('discoveri', 'end')</t>
   </si>
   <si>
-    <t>('amend', 'complaint')</t>
-  </si>
-  <si>
-    <t>('file', 'answer')</t>
-  </si>
-  <si>
-    <t>('answer', 'amend')</t>
-  </si>
-  <si>
-    <t>('end', 'pleas')</t>
+    <t>('motion', 'dismiss')</t>
+  </si>
+  <si>
+    <t>('brief', 'support')</t>
+  </si>
+  <si>
+    <t>('dismiss', 'prejudic')</t>
+  </si>
+  <si>
+    <t>('stipul', 'dismiss')</t>
+  </si>
+  <si>
+    <t>('clerk', 'entri')</t>
+  </si>
+  <si>
+    <t>('entri', 'dismiss')</t>
+  </si>
+  <si>
+    <t>('sign', 'judg')</t>
+  </si>
+  <si>
+    <t>('certif', 'servic')</t>
+  </si>
+  <si>
+    <t>('exhibit', 'exhibit')</t>
+  </si>
+  <si>
+    <t>('summari', 'judgment')</t>
+  </si>
+  <si>
+    <t>('motion', 'summari')</t>
+  </si>
+  <si>
+    <t>('materi', 'fact')</t>
+  </si>
+  <si>
+    <t>('statement', 'materi')</t>
+  </si>
+  <si>
+    <t>('report', 'recommend')</t>
+  </si>
+  <si>
+    <t>('final', 'report')</t>
+  </si>
+  <si>
+    <t>('magistr', 'judg')</t>
+  </si>
+  <si>
+    <t>('order', 'motion')</t>
+  </si>
+  <si>
+    <t>('joint', 'motion')</t>
+  </si>
+  <si>
+    <t>('file', 'order')</t>
+  </si>
+  <si>
+    <t>('motion', 'extens')</t>
   </si>
   <si>
     <t>('extens', 'time')</t>
   </si>
   <si>
-    <t>('plaintiff', 'complaint')</t>
-  </si>
-  <si>
-    <t>('motion', 'dismiss')</t>
-  </si>
-  <si>
-    <t>('brief', 'support')</t>
-  </si>
-  <si>
-    <t>('stipul', 'dismiss')</t>
-  </si>
-  <si>
-    <t>('attach', 'brief')</t>
-  </si>
-  <si>
-    <t>('lieu', 'answer')</t>
-  </si>
-  <si>
-    <t>('dismiss', 'plaintiff')</t>
-  </si>
-  <si>
-    <t>('dismiss', 'failur')</t>
-  </si>
-  <si>
-    <t>('failur', 'state')</t>
-  </si>
-  <si>
-    <t>('state', 'claim')</t>
-  </si>
-  <si>
-    <t>('default', 'judgment')</t>
-  </si>
-  <si>
-    <t>('complaint', 'lieu')</t>
-  </si>
-  <si>
-    <t>('motion', 'default')</t>
-  </si>
-  <si>
-    <t>('northsid', 'drive')</t>
-  </si>
-  <si>
-    <t>('dismiss', 'motion')</t>
-  </si>
-  <si>
-    <t>('respons', 'motion')</t>
-  </si>
-  <si>
-    <t>('dismiss', 'prejudic')</t>
-  </si>
-  <si>
-    <t>('clerk', 'entri')</t>
-  </si>
-  <si>
-    <t>('entri', 'dismiss')</t>
-  </si>
-  <si>
-    <t>('dismiss', 'approv')</t>
-  </si>
-  <si>
-    <t>('sign', 'judg')</t>
-  </si>
-  <si>
-    <t>('approv', 'stipul')</t>
-  </si>
-  <si>
-    <t>('attorney', 'fee')</t>
-  </si>
-  <si>
-    <t>('pursuant', 'enter')</t>
-  </si>
-  <si>
-    <t>('report', 'recommend')</t>
-  </si>
-  <si>
-    <t>('prejudic', 'pursuant')</t>
-  </si>
-  <si>
-    <t>('dismiss', 'pursuant')</t>
-  </si>
-  <si>
-    <t>('without', 'prejudic')</t>
-  </si>
-  <si>
-    <t>('execut', 'consult')</t>
-  </si>
-  <si>
-    <t>('certif', 'servic')</t>
-  </si>
-  <si>
-    <t>('initi', 'disclosur')</t>
-  </si>
-  <si>
-    <t>('take', 'deposit')</t>
-  </si>
-  <si>
-    <t>('notic', 'take')</t>
-  </si>
-  <si>
-    <t>('preliminari', 'report')</t>
-  </si>
-  <si>
-    <t>('report', 'discoveri')</t>
-  </si>
-  <si>
-    <t>('complet', 'discoveri')</t>
-  </si>
-  <si>
-    <t>('discoveri', 'plan')</t>
-  </si>
-  <si>
-    <t>('time', 'complet')</t>
-  </si>
-  <si>
-    <t>('product', 'document')</t>
-  </si>
-  <si>
-    <t>('request', 'product')</t>
-  </si>
-  <si>
-    <t>('joint', 'preliminari')</t>
-  </si>
-  <si>
-    <t>('first', 'request')</t>
-  </si>
-  <si>
-    <t>('servic', 'plaintiff')</t>
-  </si>
-  <si>
-    <t>('plan', 'file')</t>
-  </si>
-  <si>
-    <t>('exhibit', 'exhibit')</t>
-  </si>
-  <si>
-    <t>('summari', 'judgment')</t>
-  </si>
-  <si>
-    <t>('motion', 'summari')</t>
-  </si>
-  <si>
-    <t>('materi', 'fact')</t>
-  </si>
-  <si>
-    <t>('statement', 'materi')</t>
-  </si>
-  <si>
-    <t>('judgment', 'motion')</t>
-  </si>
-  <si>
-    <t>('judgment', 'file')</t>
-  </si>
-  <si>
-    <t>('fact', 'exhibit')</t>
-  </si>
-  <si>
-    <t>('respond', 'summari')</t>
-  </si>
-  <si>
-    <t>('repli', 'brief')</t>
-  </si>
-  <si>
-    <t>('respons', 'defend')</t>
-  </si>
-  <si>
     <t>('time', 'file')</t>
   </si>
   <si>
-    <t>('consent', 'motion')</t>
-  </si>
-  <si>
-    <t>('univers', 'attach')</t>
-  </si>
-  <si>
-    <t>('final', 'report')</t>
-  </si>
-  <si>
-    <t>('magistr', 'judg')</t>
-  </si>
-  <si>
-    <t>('order', 'motion')</t>
-  </si>
-  <si>
-    <t>('recommend', 'motion')</t>
-  </si>
-  <si>
-    <t>('object', 'report')</t>
-  </si>
-  <si>
-    <t>('order', 'servic')</t>
-  </si>
-  <si>
-    <t>('district', 'judg')</t>
-  </si>
-  <si>
-    <t>('plaintiff', 'motion')</t>
-  </si>
-  <si>
-    <t>('sign', 'magistr')</t>
-  </si>
-  <si>
-    <t>('motion', 'reconsider')</t>
-  </si>
-  <si>
-    <t>('motion', 'vacat')</t>
-  </si>
-  <si>
-    <t>('settlement', 'agreement')</t>
-  </si>
-  <si>
-    <t>('motion', 'settlement')</t>
-  </si>
-  <si>
-    <t>('joint', 'motion')</t>
-  </si>
-  <si>
-    <t>('propos', 'order')</t>
-  </si>
-  <si>
-    <t>('settlement', 'approv')</t>
-  </si>
-  <si>
-    <t>('text', 'propos')</t>
-  </si>
-  <si>
-    <t>('notic', 'settlement')</t>
-  </si>
-  <si>
-    <t>('approv', 'settlement')</t>
-  </si>
-  <si>
-    <t>('file', 'order')</t>
-  </si>
-  <si>
-    <t>('motion', 'extens')</t>
+    <t>('caus', 'shown')</t>
+  </si>
+  <si>
+    <t>('consid', 'joint')</t>
+  </si>
+  <si>
+    <t>('read', 'consid')</t>
   </si>
   <si>
     <t>('shown', 'herebi')</t>
   </si>
   <si>
+    <t>('good', 'caus')</t>
+  </si>
+  <si>
+    <t>('order', 'neddal')</t>
+  </si>
+  <si>
+    <t>('order', 'good')</t>
+  </si>
+  <si>
     <t>('time', 'read')</t>
   </si>
   <si>
-    <t>('order', 'neddal')</t>
-  </si>
-  <si>
-    <t>('consid', 'joint')</t>
-  </si>
-  <si>
-    <t>('read', 'consid')</t>
-  </si>
-  <si>
-    <t>('good', 'caus')</t>
-  </si>
-  <si>
-    <t>('order', 'good')</t>
-  </si>
-  <si>
-    <t>('caus', 'shown')</t>
-  </si>
-  <si>
     <t>('motion', 'grant')</t>
   </si>
   <si>
@@ -409,24 +223,6 @@
     <t>('forma', 'pauperi')</t>
   </si>
   <si>
-    <t>('hawk', 'appeal')</t>
-  </si>
-  <si>
-    <t>('appeal', 'forma')</t>
-  </si>
-  <si>
-    <t>('applic', 'appeal')</t>
-  </si>
-  <si>
-    <t>('hawk', 'notic')</t>
-  </si>
-  <si>
-    <t>('appeal', 'enter')</t>
-  </si>
-  <si>
-    <t>('appeal', 'notic')</t>
-  </si>
-  <si>
     <t>('civil', 'termin')</t>
   </si>
   <si>
@@ -434,39 +230,6 @@
   </si>
   <si>
     <t>('termin', 'magistr')</t>
-  </si>
-  <si>
-    <t>('judg', 'termin')</t>
-  </si>
-  <si>
-    <t>('baverman', 'termin')</t>
-  </si>
-  <si>
-    <t>('judg', 'anand')</t>
-  </si>
-  <si>
-    <t>('vineyard', 'termin')</t>
-  </si>
-  <si>
-    <t>('scofield', 'termin')</t>
-  </si>
-  <si>
-    <t>('anand', 'termin')</t>
-  </si>
-  <si>
-    <t>('judg', 'scofield')</t>
-  </si>
-  <si>
-    <t>('judg', 'vineyard')</t>
-  </si>
-  <si>
-    <t>('judg', 'baverman')</t>
-  </si>
-  <si>
-    <t>('fuller', 'termin')</t>
-  </si>
-  <si>
-    <t>('johnson', 'termin')</t>
   </si>
 </sst>
 </file>
@@ -876,31 +639,31 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -911,34 +674,31 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -949,34 +709,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -987,34 +738,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1027,32 +769,20 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1065,32 +795,14 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
       <c r="H7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1103,32 +815,11 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" t="s">
-        <v>107</v>
-      </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1141,32 +832,11 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" t="s">
-        <v>108</v>
-      </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1179,32 +849,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1214,35 +863,8 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" t="s">
-        <v>109</v>
-      </c>
       <c r="J11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1252,35 +874,8 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
       <c r="J12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1290,35 +885,8 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
       <c r="J13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1328,35 +896,8 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
       <c r="J14" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1366,35 +907,8 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
       <c r="J15" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1404,35 +918,8 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" t="s">
-        <v>110</v>
-      </c>
       <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
